--- a/혁신성장 청년인재 집중양성 7기 sap 클라우드/멘토링 플래너_2반_채지훈.xlsx
+++ b/혁신성장 청년인재 집중양성 7기 sap 클라우드/멘토링 플래너_2반_채지훈.xlsx
@@ -268,6 +268,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -278,6 +281,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -285,15 +294,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -614,7 +614,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+      <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -629,11 +629,11 @@
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -650,158 +650,158 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="9">
         <v>44530</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>44531</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>44533</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>44545</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>44547</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>44551</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>44551</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="9">
+        <v>44552</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="9">
         <v>44560</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -809,27 +809,44 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="16"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="16"/>
+      <c r="D20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
@@ -838,19 +855,6 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D9:D10"/>
@@ -859,10 +863,6 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/혁신성장 청년인재 집중양성 7기 sap 클라우드/멘토링 플래너_2반_채지훈.xlsx
+++ b/혁신성장 청년인재 집중양성 7기 sap 클라우드/멘토링 플래너_2반_채지훈.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>진행일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -100,6 +100,22 @@
   </si>
   <si>
     <t>ABAP 시험 대비 스터디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS 과제 스터디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date 객체, Math 객체, Object의 shallow copy 이해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>array.sort(),  array.filter(), sort와 fiter 함수의 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김문영, 김현식, 신형섭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,31 +284,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -611,10 +624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A18"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -629,11 +642,11 @@
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -650,158 +663,158 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="A3" s="12">
         <v>44530</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="A5" s="12">
         <v>44531</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="12">
         <v>44533</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="12">
         <v>44545</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="12">
         <v>44547</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
+      <c r="A13" s="12">
         <v>44551</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
+      <c r="A15" s="12">
         <v>44552</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="12">
         <v>44560</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -809,41 +822,72 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="8"/>
+      <c r="A19" s="12">
+        <v>44201</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>44202</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
+  <mergeCells count="34">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
@@ -853,6 +897,13 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="A9:A10"/>
@@ -862,7 +913,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/혁신성장 청년인재 집중양성 7기 sap 클라우드/멘토링 플래너_2반_채지훈.xlsx
+++ b/혁신성장 청년인재 집중양성 7기 sap 클라우드/멘토링 플래너_2반_채지훈.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>진행일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -107,15 +107,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Date 객체, Math 객체, Object의 shallow copy 이해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>array.sort(),  array.filter(), sort와 fiter 함수의 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>김문영, 김현식, 신형섭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권소연, 김수연, 김문영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date 객체, Math 객체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>array.sort(),  array.filter()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort와 fiter 함수의 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object의 shallow copy 이해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현우, 김현식, 신형섭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -290,22 +306,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -642,11 +658,11 @@
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -663,158 +679,158 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="10">
         <v>44530</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>44531</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>44533</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>44545</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="10">
         <v>44547</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="10">
         <v>44551</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="10">
         <v>44552</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="10">
         <v>44560</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -822,64 +838,63 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19" s="10">
         <v>44201</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+      <c r="A21" s="10">
         <v>44202</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B1:D1"/>
@@ -895,17 +910,10 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D9:D10"/>
@@ -913,6 +921,14 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/혁신성장 청년인재 집중양성 7기 sap 클라우드/멘토링 플래너_2반_채지훈.xlsx
+++ b/혁신성장 청년인재 집중양성 7기 sap 클라우드/멘토링 플래너_2반_채지훈.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>진행일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -275,7 +275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,23 +306,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -640,10 +646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -658,11 +664,11 @@
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -679,158 +685,158 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="12">
         <v>44530</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="12">
         <v>44531</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="12">
         <v>44533</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="12">
         <v>44545</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="12">
         <v>44547</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="12">
         <v>44551</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="12">
         <v>44552</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="12">
         <v>44560</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -838,18 +844,18 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="12">
         <v>44201</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -860,8 +866,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="9" t="s">
         <v>24</v>
       </c>
@@ -870,10 +876,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="12">
         <v>44202</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -884,8 +890,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="9" t="s">
         <v>27</v>
       </c>
@@ -893,8 +899,51 @@
         <v>28</v>
       </c>
     </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>44203</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="37">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B1:D1"/>
@@ -911,24 +960,6 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/혁신성장 청년인재 집중양성 7기 sap 클라우드/멘토링 플래너_2반_채지훈.xlsx
+++ b/혁신성장 청년인재 집중양성 7기 sap 클라우드/멘토링 플래너_2반_채지훈.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>진행일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>이현우, 김현식, 신형섭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김수연</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAPUI5 코드 복습</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAPUI5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -646,10 +658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -921,11 +933,28 @@
       </c>
       <c r="D24" s="15"/>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>44209</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
+  <mergeCells count="41">
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D5:D6"/>
@@ -933,19 +962,18 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -960,6 +988,14 @@
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/혁신성장 청년인재 집중양성 7기 sap 클라우드/멘토링 플래너_2반_채지훈.xlsx
+++ b/혁신성장 청년인재 집중양성 7기 sap 클라우드/멘토링 플래너_2반_채지훈.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="5" lowestEdited="5" rupBuild="9.103.112.46022"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -12,253 +12,537 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>진행일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>과목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>참여인원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>멘토링 과제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HTML, CSS, JavaScript 활용 계산기 만들기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Code 디버깅/추가될 부분 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>멘토링 과제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>권소연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>신형섭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>학생멘토링</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ABAP ALV Events and Methods</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ABAP 과제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>권소연, 김수연, 신형섭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ABAP ALV 생성, 디자인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ABAP 과제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>클라우드 2반 채지훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>김문영, 김현식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>권소연, 김수연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ABAP 스터디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ABAP 시험 대비 스터디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JS 과제 스터디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>김문영, 김현식, 신형섭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>권소연, 김수연, 김문영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Date 객체, Math 객체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>array.sort(),  array.filter()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>sort와 fiter 함수의 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Object의 shallow copy 이해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>이현우, 김현식, 신형섭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>김수연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SAPUI5 코드 복습</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SAPUI5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiori Launchpad 실습 설명</t>
+  </si>
+  <si>
+    <t>OData Binding 복습 스터디</t>
+  </si>
+  <si>
+    <t>SAPUI5 스터디</t>
+  </si>
+  <si>
+    <t>김문영</t>
+  </si>
+  <si>
+    <t>권소연, 김문영, 김수연</t>
+  </si>
+  <si>
+    <t>OData Binding 복습 zoom 스터디</t>
+  </si>
+  <si>
+    <t>Fiori Launchpad 실습 설명(zoom)</t>
+  </si>
+  <si>
+    <t>Data Binding 실습 설명</t>
+  </si>
+  <si>
+    <t>Data Binding 과제 실습 설명</t>
+  </si>
+  <si>
+    <t>프로젝트 회의</t>
+  </si>
+  <si>
+    <t>프로젝트 화면, 프로세스, Data 테이블 구상(zoom)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">권소연, </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="21">
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -273,17 +557,270 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -297,13 +834,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -312,49 +849,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="26" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="30" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="34" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="38" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="27" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="31" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="35" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="39" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="28" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="32" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="36" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="40" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="25" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="29" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="33" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="37" builtinId="41"/>
     <cellStyle name="강조색5" xfId="1" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="11" builtinId="11"/>
+    <cellStyle name="계산" xfId="19" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="23" builtinId="27"/>
+    <cellStyle name="메모" xfId="10" builtinId="10"/>
+    <cellStyle name="백분율" xfId="5" builtinId="5"/>
+    <cellStyle name="보통" xfId="24" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
     <cellStyle name="셀 확인" xfId="2" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="3" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="20" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="21" builtinId="25"/>
+    <cellStyle name="입력" xfId="17" builtinId="20"/>
+    <cellStyle name="제목" xfId="12" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="13" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="14" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="15" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="16" builtinId="19"/>
+    <cellStyle name="좋음" xfId="22" builtinId="26"/>
+    <cellStyle name="출력" xfId="18" builtinId="21"/>
+    <cellStyle name="통화" xfId="4" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="7" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="8" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -644,45 +1220,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A13" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="49.25" customWidth="1"/>
-    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="1" max="1" width="12.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="12.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="49.25500107" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="20.75499916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.750000" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="21.000000" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -696,335 +1275,439 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+    <row r="3" spans="1:7" ht="16.500000" customHeight="1">
+      <c r="A3" s="8">
         <v>44530</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15"/>
+    <row r="4" spans="1:7" ht="16.500000" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.500000" customHeight="1">
+      <c r="A5" s="8">
         <v>44531</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="15"/>
+    <row r="6" spans="1:7" ht="16.500000" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8">
         <v>44533</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+    <row r="8" spans="1:7">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8">
         <v>44545</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+    <row r="10" spans="1:7">
+      <c r="A10" s="9"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8">
         <v>44547</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+    <row r="12" spans="1:7">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8">
         <v>44551</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+    <row r="14" spans="1:7">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8">
         <v>44552</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+    <row r="16" spans="1:7">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8">
         <v>44560</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+    <row r="19" spans="1:4">
+      <c r="A19" s="8">
         <v>44201</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="9" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="9"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+    <row r="21" spans="1:4">
+      <c r="A21" s="8">
         <v>44202</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="9" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="9"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+    <row r="23" spans="1:4">
+      <c r="A23" s="8">
         <v>44203</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="11" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="9"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8">
         <v>44209</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+    <row r="26" spans="1:4">
+      <c r="A26" s="9"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8">
+        <v>44222</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8">
+        <v>44231</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="9"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="8">
+        <v>44237</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="9"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8">
+        <v>44243</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="9"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
+  <mergeCells count="56">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/혁신성장 청년인재 집중양성 7기 sap 클라우드/멘토링 플래너_2반_채지훈.xlsx
+++ b/혁신성장 청년인재 집중양성 7기 sap 클라우드/멘토링 플래너_2반_채지훈.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>진행일자</t>
   </si>
@@ -157,6 +157,24 @@
   </si>
   <si>
     <t xml:space="preserve">권소연, </t>
+  </si>
+  <si>
+    <t>프로젝트 화면 수정</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data 테이블 구상(zoom)</t>
+  </si>
+  <si>
+    <t>화면 수정</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (zoom)</t>
+  </si>
+  <si>
+    <t>화면 수정, Data 테이블 추가</t>
+  </si>
+  <si>
+    <t>화면 수정, Data 테이블 추가(zoom)</t>
   </si>
 </sst>
 </file>
@@ -164,7 +182,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -287,12 +305,6 @@
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
       <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
     </font>
     <font>
       <i/>
@@ -499,7 +511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -571,7 +583,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -580,7 +591,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -589,7 +599,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -598,7 +607,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -613,7 +621,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -628,7 +635,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -637,7 +643,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -648,31 +653,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -751,7 +731,7 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -760,10 +740,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -772,10 +752,10 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -784,10 +764,10 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -796,7 +776,7 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -805,10 +785,10 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -817,14 +797,14 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,12 +837,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1237,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView topLeftCell="A13" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D34"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1542,7 +1516,7 @@
       <c r="C27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1550,7 +1524,7 @@
       <c r="A28" s="9"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8">
@@ -1562,7 +1536,7 @@
       <c r="C29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1570,7 +1544,7 @@
       <c r="A30" s="9"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8">
@@ -1579,20 +1553,20 @@
       <c r="B31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="9"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8">
@@ -1614,8 +1588,28 @@
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
     </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8">
+        <v>44244</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="9"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="60">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -1672,6 +1666,10 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
